--- a/biology/Botanique/Diaporthales/Diaporthales.xlsx
+++ b/biology/Botanique/Diaporthales/Diaporthales.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Diaporthales sont un ordre de champignons ascomycètes. On retrouve parmi eux de redoutables pathogènes des végétaux comme Cryphonectria parasitica, l'agent du chancre du châtaignier, ou Diaporthe helianthi, qui provoque des nécroses sur les tiges de tournesol.
 </t>
@@ -511,7 +523,9 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Leurs ascocarpes sont des périthèces noirs qui peuvent être groupés dans un ciment stromatique ; l'ostiole est souvent placé à l’extrémité d'un col. On n'observe pas de paraphyses à maturité des périthèces. Les asques sont unituniquées et présentent fréquemment un anneau apical bien visible. Les ascospores peuvent être hyalines ou sombres, ellipsoïdes ou plus allongées, unicellulaires ou multicellulaires.
 Les anamorphes sont des cœlomycètes, les pycnides peuvent être formées dans le même stroma que les périthèces. Les conidies proviennent du bourgeonnement de sporocystes spécialisés appelés phialides.
@@ -543,9 +557,11 @@
           <t>Liste des familles</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Catalogue of Life                                   (4 octobre 2014)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Catalogue of Life                                   (4 octobre 2014) :
 famille Cryphonectriaceae
 famille Diaporthaceae
 famille Gnomoniaceae
@@ -560,7 +576,7 @@
 famille Togniniaceae
 famille Valsaceae
 famille Vialaeaceae
-Selon ITIS      (4 octobre 2014)[1] :
+Selon ITIS      (4 octobre 2014) :
 famille Cryphonectriaceae
 famille Diaporthaceae Höhn. ex Wehm., 1926
 famille Gnomoniaceae
@@ -600,9 +616,11 @@
           <t>Liste des familles, genres, espèces, sous-espèces, variétés et non-classés</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon NCBI  (4 octobre 2014)[3] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon NCBI  (4 octobre 2014) :
 famille Cryphonectriaceae
 genre Aurantiosacculus
 Aurantiosacculus acutatus
